--- a/trunk/Documents/Final Year Projects.xlsx
+++ b/trunk/Documents/Final Year Projects.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Final Year Projects" sheetId="2" r:id="rId1"/>
-    <sheet name="Mini Projects" sheetId="3" r:id="rId2"/>
+    <sheet name="Mini Projects" sheetId="3" r:id="rId1"/>
+    <sheet name="Final Year Projects" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -101,12 +101,81 @@
     <comment ref="A30" authorId="0" shapeId="0">
       <text/>
     </comment>
+    <comment ref="A31" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A32" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A35" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A36" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A37" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A38" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A39" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A40" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A41" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A42" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A43" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A44" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A45" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A46" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A47" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A48" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A49" authorId="0" shapeId="0">
+      <text/>
+    </comment>
     <comment ref="A50" authorId="0" shapeId="0">
       <text/>
     </comment>
     <comment ref="A51" authorId="0" shapeId="0">
       <text/>
     </comment>
+    <comment ref="A52" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A53" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A54" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A55" authorId="0" shapeId="0">
+      <text/>
+    </comment>
     <comment ref="A56" authorId="0" shapeId="0">
       <text/>
     </comment>
@@ -140,76 +209,43 @@
     <comment ref="A66" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="A81" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A82" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A83" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A84" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A85" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A86" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A87" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A88" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A89" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A90" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A104" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A105" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A114" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A118" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A121" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A122" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A130" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A131" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A132" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A133" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A175" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A179" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A220" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A235" authorId="0" shapeId="0">
+    <comment ref="A67" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A68" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A69" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A70" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A71" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A72" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A73" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A74" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A75" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A76" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A77" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A78" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A79" authorId="0" shapeId="0">
       <text/>
     </comment>
   </commentList>
@@ -303,81 +339,12 @@
     <comment ref="A30" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A32" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A33" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A34" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A35" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A36" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A37" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A38" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A39" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A40" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A41" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A42" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A43" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A44" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A45" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A46" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A47" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A48" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A49" authorId="0" shapeId="0">
-      <text/>
-    </comment>
     <comment ref="A50" authorId="0" shapeId="0">
       <text/>
     </comment>
     <comment ref="A51" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="A52" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A53" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A54" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A55" authorId="0" shapeId="0">
-      <text/>
-    </comment>
     <comment ref="A56" authorId="0" shapeId="0">
       <text/>
     </comment>
@@ -411,43 +378,76 @@
     <comment ref="A66" authorId="0" shapeId="0">
       <text/>
     </comment>
-    <comment ref="A67" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A68" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A69" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A70" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A71" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A72" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A73" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A74" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A75" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A76" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A77" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A78" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A79" authorId="0" shapeId="0">
+    <comment ref="A81" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A82" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A83" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A84" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A85" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A86" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A87" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A88" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A89" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A90" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A104" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A105" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A114" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A118" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A121" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A122" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A130" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A131" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A132" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A133" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A175" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A179" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A220" authorId="0" shapeId="0">
+      <text/>
+    </comment>
+    <comment ref="A235" authorId="0" shapeId="0">
       <text/>
     </comment>
   </commentList>
@@ -4240,7 +4240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4251,6 +4251,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -4301,31 +4302,13 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4341,7 +4324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -4355,7 +4338,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4365,23 +4347,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4688,1321 +4658,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B262"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:A79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="84.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B51" s="7"/>
-    </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-    </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
-    </row>
-    <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B56" s="7"/>
-    </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>180</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>176</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>87</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
-    </row>
-    <row r="80" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B82" s="7"/>
-    </row>
-    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" s="7"/>
-    </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B84" s="7"/>
-    </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B85" s="7"/>
-    </row>
-    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B86" s="7"/>
-    </row>
-    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B87" s="7"/>
-    </row>
-    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B88" s="7"/>
-    </row>
-    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="6"/>
-    </row>
-    <row r="110" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B111" s="7"/>
-    </row>
-    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B114" s="7"/>
-    </row>
-    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B119" s="7"/>
-    </row>
-    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B121" s="7"/>
-    </row>
-    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122" s="7"/>
-    </row>
-    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123" s="7"/>
-    </row>
-    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="6"/>
-    </row>
-    <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B128" s="7"/>
-    </row>
-    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B132" s="7"/>
-    </row>
-    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A151" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="6"/>
-    </row>
-    <row r="158" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B159" s="7"/>
-    </row>
-    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A160" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B160" s="7"/>
-    </row>
-    <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A161" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A162" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B162" s="7"/>
-    </row>
-    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A163" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A164" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B164" s="7"/>
-    </row>
-    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A165" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A168" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A169" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A170" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A171" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A172" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A173" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A174" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A175" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A178" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A179" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A180" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A181" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A182" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A183" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A184" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A185" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A186" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A187" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A188" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A190" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A191" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A192" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A193" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A194" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A195" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A196" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A197" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A198" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A199" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A200" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A201" s="6"/>
-    </row>
-    <row r="202" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A203" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A204" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A205" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A206" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A207" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A208" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A209" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A210" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A211" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A212" s="6"/>
-    </row>
-    <row r="213" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A213" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A214" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A215" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A216" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A217" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A218" s="6"/>
-    </row>
-    <row r="219" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A219" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A220" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A221" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A222" s="6"/>
-    </row>
-    <row r="223" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A224" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A225" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A226" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A227" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A228" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A229" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A230" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A231" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A232" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A233" s="6"/>
-    </row>
-    <row r="234" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A235" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A236" s="6"/>
-    </row>
-    <row r="237" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A238" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A239" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A253" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" s="2" t="s">
-        <v>0</v>
+      <c r="A79" s="6" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -6014,465 +5073,1287 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B79"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:A262"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="84.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B1" s="16"/>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="14"/>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B51" s="7"/>
-    </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B52" s="7"/>
-    </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="7"/>
+    </row>
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="6"/>
+    </row>
+    <row r="55" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B59" s="7"/>
-    </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B64" s="7"/>
-    </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B68" s="7"/>
-    </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B69" s="7"/>
-    </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
-        <v>242</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="6"/>
+    </row>
+    <row r="80" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="6"/>
+    </row>
+    <row r="110" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125" s="6"/>
+    </row>
+    <row r="126" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A157" s="6"/>
+    </row>
+    <row r="158" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A172" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A178" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A182" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A184" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A187" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A188" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A189" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A190" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A191" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A192" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A197" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A198" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A199" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A200" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A201" s="6"/>
+    </row>
+    <row r="202" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A204" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A205" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A206" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A208" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A210" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A211" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A212" s="6"/>
+    </row>
+    <row r="213" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A214" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A215" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A216" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A217" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A218" s="6"/>
+    </row>
+    <row r="219" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A220" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A221" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A222" s="6"/>
+    </row>
+    <row r="223" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A224" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A225" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A226" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A227" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A228" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A229" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A230" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A231" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A232" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A233" s="6"/>
+    </row>
+    <row r="234" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A235" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A236" s="6"/>
+    </row>
+    <row r="237" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A238" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A239" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/trunk/Documents/Final Year Projects.xlsx
+++ b/trunk/Documents/Final Year Projects.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -10,452 +10,13 @@
     <sheet name="Mini Projects" sheetId="3" r:id="rId1"/>
     <sheet name="Final Year Projects" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A22" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A23" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A24" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A25" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A26" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A27" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A28" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A29" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A30" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A31" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A32" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A33" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A34" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A35" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A36" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A37" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A38" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A39" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A40" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A41" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A42" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A43" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A44" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A45" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A46" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A47" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A48" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A49" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A50" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A51" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A52" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A53" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A54" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A55" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A56" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A57" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A58" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A59" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A60" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A61" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A62" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A63" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A64" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A65" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A66" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A67" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A68" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A69" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A70" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A71" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A72" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A73" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A74" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A75" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A76" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A77" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A78" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A79" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A22" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A23" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A24" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A25" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A26" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A27" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A28" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A29" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A30" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A50" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A51" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A56" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A57" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A58" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A59" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A60" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A61" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A62" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A63" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A64" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A65" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A66" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A81" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A82" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A83" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A84" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A85" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A86" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A87" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A88" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A89" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A90" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A104" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A105" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A114" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A118" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A121" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A122" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A130" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A131" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A132" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A133" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A175" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A179" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A220" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-    <comment ref="A235" authorId="0" shapeId="0">
-      <text/>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="345">
   <si>
     <t>Green Wind Energy for rural electrification</t>
   </si>
@@ -3233,120 +2794,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Digital Tachometer using 8051 Microcontroller (1800/-)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 based IR Remote based 8 Channel Home Appliances Control (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Edge Avoiding Robot (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Distance meter using Ultrasonic sensor (2200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller Based Tachometer (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Device control using Mobile Phone (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Microcontroller based Fan Speed Controller (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Password Based Door Lock System using 8051 Microcontroller (1800/-)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -3379,42 +2826,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>AT89S52 Microcontroller based Electronic Lock (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based Count Down Timer (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>AT89S52 Based Remote Controller for Water Pump (1800/-)</t>
     </r>
   </si>
@@ -3455,24 +2866,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Automatic Line Following Robot (2200/-)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> Speed Control of DC Motor Using Pulse Width Modulation (1200/-)</t>
   </si>
   <si>
@@ -3490,83 +2883,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Display of Dialed Telephone Numbers on Seven Segment Displays (1800/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Object Counter (1600/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Microcontroller based Room Light and Fan control using Motion Sensor (1500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>AT89S52 Based DC Motor Speed Controller with LCD Display (1500/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>Remote Controlled Fan Regulator (1800/-)</t>
     </r>
-  </si>
-  <si>
-    <t>Interfacing 16X2 LCD with 8051 Microcontroller with moving Display (1500/-)</t>
   </si>
   <si>
     <r>
@@ -4235,12 +3553,330 @@
   <si>
     <t>Mini Projects</t>
   </si>
+  <si>
+    <t>Greater</t>
+  </si>
+  <si>
+    <t>Less</t>
+  </si>
+  <si>
+    <t>650/-</t>
+  </si>
+  <si>
+    <t>1200/-</t>
+  </si>
+  <si>
+    <t>1800/-</t>
+  </si>
+  <si>
+    <t>2200/-</t>
+  </si>
+  <si>
+    <t>2800/-</t>
+  </si>
+  <si>
+    <t>3200/-</t>
+  </si>
+  <si>
+    <t>3800/-</t>
+  </si>
+  <si>
+    <t>4200/-</t>
+  </si>
+  <si>
+    <t>4800/-</t>
+  </si>
+  <si>
+    <t>5200/-</t>
+  </si>
+  <si>
+    <t>5800/-</t>
+  </si>
+  <si>
+    <t>6200/-</t>
+  </si>
+  <si>
+    <t>6800/-</t>
+  </si>
+  <si>
+    <t>Interfacing 16X2 LCD with 8051 Microcontroller with moving Display (1200/-)</t>
+  </si>
+  <si>
+    <t>1000/-</t>
+  </si>
+  <si>
+    <t>780/-</t>
+  </si>
+  <si>
+    <t>800/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based DC Motor Speed Controller with LCD Display (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>975/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Room Light and Fan control using Motion Sensor (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>468/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Object Counter (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>910/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Display of Dialed Telephone Numbers on Seven Segment Displays (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>500/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Automatic Line Following Robot (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>400/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Based Count Down Timer (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Electronic Lock (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Password Based Door Lock System using 8051 Microcontroller (1200/-)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Microcontroller based Fan Speed Controller (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>450/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Device control using Mobile Phone (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller Based Tachometer (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <t>680/-</t>
+  </si>
+  <si>
+    <t>670/-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Distance meter using Ultrasonic sensor (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Edge Avoiding Robot (1200/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 RF Based 4 Channel Home Appliances Control (1800/-)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4303,12 +3939,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4324,7 +3966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -4352,6 +3994,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4414,7 +4060,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4446,10 +4092,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4481,7 +4126,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4657,7 +4301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A79"/>
   <sheetViews>
@@ -4665,1695 +4309,1788 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="60.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="16.5">
       <c r="A3" s="11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
       <c r="A4" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
       <c r="A5" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15">
       <c r="A6" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15">
       <c r="A7" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15">
       <c r="A8" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15">
       <c r="A9" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15">
       <c r="A10" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15">
       <c r="A11" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15">
       <c r="A12" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15">
       <c r="A13" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15">
       <c r="A14" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15">
       <c r="A15" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15">
       <c r="A16" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15">
       <c r="A17" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15">
       <c r="A18" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15">
       <c r="A19" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15">
       <c r="A20" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15">
       <c r="A21" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15">
       <c r="A22" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15">
       <c r="A23" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15">
       <c r="A24" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15">
       <c r="A25" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15">
       <c r="A26" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15">
       <c r="A27" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15">
       <c r="A28" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15">
       <c r="A29" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15">
       <c r="A30" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15">
       <c r="A31" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15">
       <c r="A32" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15">
       <c r="A33" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15">
       <c r="A34" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15">
       <c r="A35" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15">
       <c r="A36" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15">
       <c r="A37" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15">
       <c r="A38" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15">
       <c r="A39" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15">
       <c r="A40" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15">
       <c r="A41" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15">
       <c r="A42" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15">
       <c r="A43" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15">
       <c r="A44" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15">
       <c r="A45" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15">
       <c r="A46" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15">
       <c r="A47" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15">
       <c r="A48" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15">
       <c r="A49" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15">
       <c r="A50" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15">
       <c r="A51" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15">
       <c r="A52" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15">
       <c r="A53" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15">
       <c r="A54" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15">
       <c r="A55" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15">
       <c r="A56" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15">
       <c r="A57" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15">
       <c r="A58" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15">
       <c r="A59" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15">
       <c r="A60" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15">
       <c r="A61" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15">
       <c r="A62" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15">
       <c r="A63" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15">
       <c r="A64" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15">
       <c r="A65" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15">
       <c r="A66" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15">
       <c r="A67" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15">
       <c r="A68" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15">
       <c r="A69" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15">
       <c r="A70" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15">
       <c r="A71" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15">
       <c r="A72" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15">
       <c r="A73" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15">
       <c r="A74" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15">
       <c r="A75" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15">
       <c r="A76" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15">
       <c r="A77" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15">
       <c r="A78" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15">
       <c r="A79" s="6" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A262"/>
+  <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="84.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="6"/>
-    </row>
-    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15">
       <c r="A24" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15">
       <c r="A26" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15">
       <c r="A27" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15">
       <c r="A28" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15">
       <c r="A29" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15">
       <c r="A30" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15">
       <c r="A32" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15">
       <c r="A33" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15">
       <c r="A34" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15">
       <c r="A35" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15">
       <c r="A36" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15">
       <c r="A37" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15">
       <c r="A38" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15">
       <c r="A39" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15">
       <c r="A40" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15">
       <c r="A41" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15">
       <c r="A42" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15">
       <c r="A43" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15">
       <c r="A44" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15">
       <c r="A45" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15">
       <c r="A46" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15">
       <c r="A47" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15">
       <c r="A48" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15">
       <c r="A49" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15">
       <c r="A50" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15">
       <c r="A51" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
-    </row>
-    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
-    </row>
-    <row r="55" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+    <row r="52" spans="1:1" ht="15">
+      <c r="A52" s="7"/>
+    </row>
+    <row r="53" spans="1:1" ht="15">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="54" spans="1:1" ht="16.5">
+      <c r="A54" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="15">
+      <c r="A55" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15">
       <c r="A56" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15">
       <c r="A57" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15">
       <c r="A58" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15">
       <c r="A59" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15">
       <c r="A60" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15">
       <c r="A61" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15">
       <c r="A62" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15">
       <c r="A63" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15">
       <c r="A64" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15">
       <c r="A65" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15">
       <c r="A66" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15">
       <c r="A67" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15">
       <c r="A68" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15">
       <c r="A69" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15">
       <c r="A70" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15">
       <c r="A71" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15">
       <c r="A72" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15">
       <c r="A73" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15">
       <c r="A74" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15">
       <c r="A75" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15">
       <c r="A76" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15">
       <c r="A77" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
-    </row>
-    <row r="80" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+    <row r="78" spans="1:1" ht="15">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" spans="1:1" ht="16.5">
+      <c r="A79" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="15">
+      <c r="A80" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15">
       <c r="A81" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15">
       <c r="A82" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15">
       <c r="A83" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15">
       <c r="A84" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15">
       <c r="A85" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15">
       <c r="A86" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15">
       <c r="A87" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15">
       <c r="A88" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15">
       <c r="A89" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15">
       <c r="A90" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15">
       <c r="A91" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15">
       <c r="A92" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15">
       <c r="A93" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15">
       <c r="A94" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15">
       <c r="A95" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15">
       <c r="A96" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15">
       <c r="A97" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15">
       <c r="A98" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15">
       <c r="A99" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15">
       <c r="A100" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15">
       <c r="A101" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15">
       <c r="A102" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15">
       <c r="A103" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15">
       <c r="A104" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15">
       <c r="A105" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15">
       <c r="A106" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15">
       <c r="A107" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="6"/>
-    </row>
-    <row r="110" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
+    <row r="108" spans="1:1" ht="15">
+      <c r="A108" s="6"/>
+    </row>
+    <row r="109" spans="1:1" ht="16.5">
+      <c r="A109" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" ht="15">
+      <c r="A110" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15">
       <c r="A111" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15">
       <c r="A112" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15">
       <c r="A113" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15">
       <c r="A114" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15">
       <c r="A115" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15">
       <c r="A116" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15">
       <c r="A117" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15">
       <c r="A118" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15">
       <c r="A119" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15">
       <c r="A120" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15">
       <c r="A121" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15">
       <c r="A122" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15">
       <c r="A123" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="6"/>
-    </row>
-    <row r="126" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
+    <row r="124" spans="1:1" ht="15">
+      <c r="A124" s="6"/>
+    </row>
+    <row r="125" spans="1:1" ht="16.5">
+      <c r="A125" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" ht="15">
+      <c r="A126" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15">
       <c r="A127" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15">
       <c r="A128" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15">
       <c r="A129" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15">
       <c r="A130" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15">
       <c r="A131" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15">
       <c r="A132" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15">
       <c r="A133" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15">
       <c r="A134" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15">
       <c r="A135" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15">
       <c r="A136" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15">
       <c r="A137" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15">
       <c r="A138" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15">
       <c r="A139" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15">
       <c r="A140" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15">
       <c r="A141" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15">
       <c r="A142" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15">
       <c r="A143" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15">
       <c r="A144" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15">
       <c r="A145" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15">
       <c r="A146" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15">
       <c r="A147" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15">
       <c r="A148" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15">
       <c r="A149" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15">
       <c r="A150" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15">
       <c r="A151" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15">
       <c r="A152" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15">
       <c r="A153" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="15">
       <c r="A154" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="15">
       <c r="A155" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="6"/>
-    </row>
-    <row r="158" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
+    <row r="156" spans="1:1" ht="15">
+      <c r="A156" s="6"/>
+    </row>
+    <row r="157" spans="1:1" ht="16.5">
+      <c r="A157" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" ht="15">
+      <c r="A158" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15">
       <c r="A159" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15">
       <c r="A160" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15">
       <c r="A161" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15">
       <c r="A162" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15">
       <c r="A163" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15">
       <c r="A164" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A165" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
+    <row r="165" spans="1:1" ht="16.5">
+      <c r="A165" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" ht="15">
+      <c r="A166" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15">
       <c r="A167" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15">
       <c r="A168" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15">
       <c r="A169" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15">
       <c r="A170" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15">
       <c r="A171" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15">
       <c r="A172" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15">
       <c r="A173" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15">
       <c r="A174" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="15">
       <c r="A175" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="15">
       <c r="A176" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="15">
       <c r="A177" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15">
       <c r="A178" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15">
       <c r="A179" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15">
       <c r="A180" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="15">
       <c r="A181" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15">
       <c r="A182" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="15">
       <c r="A183" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15">
       <c r="A184" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15">
       <c r="A185" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="15">
       <c r="A186" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="15">
       <c r="A187" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15">
       <c r="A188" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="15">
       <c r="A189" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="15">
       <c r="A190" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="15">
       <c r="A191" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="15">
       <c r="A192" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15">
       <c r="A193" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15">
       <c r="A194" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15">
       <c r="A195" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="15">
       <c r="A196" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="15">
       <c r="A197" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="15">
       <c r="A198" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="15">
       <c r="A199" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A200" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A201" s="6"/>
-    </row>
-    <row r="202" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
+    <row r="200" spans="1:1" ht="15">
+      <c r="A200" s="6"/>
+    </row>
+    <row r="201" spans="1:1" ht="16.5">
+      <c r="A201" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" ht="15">
+      <c r="A202" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="15">
       <c r="A203" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="15">
       <c r="A204" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="15">
       <c r="A205" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="15">
       <c r="A206" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="15">
       <c r="A207" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="15">
       <c r="A208" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="15">
       <c r="A209" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="15">
       <c r="A210" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A211" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A212" s="6"/>
-    </row>
-    <row r="213" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A213" s="4" t="s">
+    <row r="211" spans="1:1" ht="15">
+      <c r="A211" s="6"/>
+    </row>
+    <row r="212" spans="1:1" ht="16.5">
+      <c r="A212" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" ht="15">
+      <c r="A213" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="15">
       <c r="A214" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="15">
       <c r="A215" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="15">
       <c r="A216" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A217" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A218" s="6"/>
-    </row>
-    <row r="219" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A219" s="4" t="s">
+    <row r="217" spans="1:1" ht="15">
+      <c r="A217" s="6"/>
+    </row>
+    <row r="218" spans="1:1" ht="16.5">
+      <c r="A218" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" ht="15">
+      <c r="A219" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="15">
       <c r="A220" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A221" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A222" s="6"/>
-    </row>
-    <row r="223" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="4" t="s">
+    <row r="221" spans="1:1" ht="15">
+      <c r="A221" s="6"/>
+    </row>
+    <row r="222" spans="1:1" ht="16.5">
+      <c r="A222" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" ht="15">
+      <c r="A223" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="15">
       <c r="A224" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="15">
       <c r="A225" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="15">
       <c r="A226" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="15">
       <c r="A227" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="15">
       <c r="A228" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="15">
       <c r="A229" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="15">
       <c r="A230" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="15">
       <c r="A231" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A232" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A233" s="6"/>
-    </row>
-    <row r="234" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A234" s="4" t="s">
+    <row r="232" spans="1:1" ht="15">
+      <c r="A232" s="6"/>
+    </row>
+    <row r="233" spans="1:1" ht="16.5">
+      <c r="A233" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A235" s="6" t="s">
+    <row r="234" spans="1:1" ht="15">
+      <c r="A234" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A236" s="6"/>
-    </row>
-    <row r="237" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A237" s="4" t="s">
+    <row r="235" spans="1:1" ht="15">
+      <c r="A235" s="6"/>
+    </row>
+    <row r="236" spans="1:1" ht="16.5">
+      <c r="A236" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" ht="15">
+      <c r="A237" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="15">
       <c r="A238" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A239" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A241" s="4" t="s">
+    <row r="240" spans="1:1" ht="16.5">
+      <c r="A240" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1">
+      <c r="A241" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
       <c r="A242" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
       <c r="A243" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
       <c r="A244" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
       <c r="A245" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
       <c r="A246" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="4" t="s">
+    <row r="248" spans="1:1" ht="16.5">
+      <c r="A248" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="4" t="s">
+    <row r="250" spans="1:1" ht="16.5">
+      <c r="A250" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A253" s="4" t="s">
+    <row r="252" spans="1:1" ht="16.5">
+      <c r="A252" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1">
+      <c r="A253" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
       <c r="A254" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
       <c r="A255" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
       <c r="A256" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
       <c r="A257" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="3" t="s">
+    <row r="258" spans="1:1">
+      <c r="A258" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1">
+      <c r="A259" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
       <c r="A260" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
       <c r="A261" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>